--- a/biology/Zoologie/Aselle_des_murs/Aselle_des_murs.xlsx
+++ b/biology/Zoologie/Aselle_des_murs/Aselle_des_murs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oniscus asellus
 L'Aselle des murs (Oniscus asellus) est une espèce de cloportes des plus répandus en Europe occidentale et du Nord, ainsi que sur les îles Britanniques.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut mesurer jusqu'à 18 millimètres de long[1] pour 6 millimètres de large.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut mesurer jusqu'à 18 millimètres de long pour 6 millimètres de large.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce crustacé terrestre vit de un à deux ans, dans les milieux humides et sombres (grottes[2], anfractuosités de murs…) de toutes les zones tempérées de la terre, souvent près de l'homme. Il est détritivore, se nourrissant de restes de plantes, d'animaux morts et de bois mort[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce crustacé terrestre vit de un à deux ans, dans les milieux humides et sombres (grottes, anfractuosités de murs…) de toutes les zones tempérées de la terre, souvent près de l'homme. Il est détritivore, se nourrissant de restes de plantes, d'animaux morts et de bois mort.
 </t>
         </is>
       </c>
